--- a/model/Outputs/8. Fixed RE/No PV/Evaluation Metrics.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV/Evaluation Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/Model-1/model/Outputs/8. Fixed RE/No PV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_DB1B6613CA30921FD2FE31D2F8F2D3C2645DACFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1F9A7C7-336F-4481-A0F0-8EFF608D0F22}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_EA9785161231921FD2FE31D2F8F2D3C254D20DB6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C46B2B39-4211-4613-BA8F-CAA664297C75}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>FiT</t>
   </si>
@@ -50,15 +50,6 @@
   </si>
   <si>
     <t>30</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>60</t>
   </si>
 </sst>
 </file>
@@ -137,6 +128,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,21 +421,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -467,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0.35</v>
@@ -479,7 +466,7 @@
         <v>0.68607232910464744</v>
       </c>
       <c r="F2">
-        <v>438730.15263065009</v>
+        <v>1309083561.651263</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -487,7 +474,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0.35</v>
@@ -499,7 +486,7 @@
         <v>0.68607232910464744</v>
       </c>
       <c r="F3">
-        <v>438730.15263065009</v>
+        <v>1309083561.651263</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -507,19 +494,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0.35</v>
       </c>
       <c r="D4">
-        <v>0.10756521128389861</v>
+        <v>9.8228165751027524E-2</v>
       </c>
       <c r="E4">
-        <v>0.75498820560459168</v>
+        <v>0.68607232910464744</v>
       </c>
       <c r="F4">
-        <v>442389.83096285991</v>
+        <v>1309083561.651263</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -527,79 +514,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="D5">
-        <v>0.2426852557286597</v>
+        <v>0.23769663051268039</v>
       </c>
       <c r="E5">
-        <v>0.68812671789224433</v>
+        <v>0.68607232910464744</v>
       </c>
       <c r="F5">
-        <v>502887.82467726781</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0.3</v>
-      </c>
-      <c r="C6">
-        <v>0.35</v>
-      </c>
-      <c r="D6">
-        <v>0.43489095247414689</v>
-      </c>
-      <c r="E6">
-        <v>0.68970644462979169</v>
-      </c>
-      <c r="F6">
-        <v>578284.66314529232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0.3</v>
-      </c>
-      <c r="C7">
-        <v>0.35</v>
-      </c>
-      <c r="D7">
-        <v>0.54658248381437968</v>
-      </c>
-      <c r="E7">
-        <v>0.68879339797260852</v>
-      </c>
-      <c r="F7">
-        <v>623519.92773147882</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0.3</v>
-      </c>
-      <c r="C8">
-        <v>0.35</v>
-      </c>
-      <c r="D8">
-        <v>0.62420558621753186</v>
-      </c>
-      <c r="E8">
-        <v>0.69048473409331457</v>
-      </c>
-      <c r="F8">
-        <v>653752.89067048812</v>
+        <v>1270172230.762085</v>
       </c>
     </row>
   </sheetData>

--- a/model/Outputs/8. Fixed RE/No PV/Evaluation Metrics.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV/Evaluation Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/Model-1/model/Outputs/8. Fixed RE/No PV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_EA9785161231921FD2FE31D2F8F2D3C254D20DB6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C46B2B39-4211-4613-BA8F-CAA664297C75}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_790EE700CA30921FD2FE31D2F8F2D3C2B4D7EBE7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88EACF86-586E-489A-9408-1508EFE49768}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>FiT</t>
   </si>
@@ -50,13 +50,25 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +78,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,17 +124,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,10 +156,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,13 +445,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -450,7 +479,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
@@ -459,18 +488,18 @@
       <c r="C2">
         <v>0.35</v>
       </c>
-      <c r="D2">
-        <v>9.8228165751027524E-2</v>
-      </c>
-      <c r="E2">
-        <v>0.68607232910464744</v>
-      </c>
-      <c r="F2">
-        <v>1309083561.651263</v>
+      <c r="D2" s="3">
+        <v>8.4082001884524457E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.71005340110619186</v>
+      </c>
+      <c r="F2" s="4">
+        <v>49701999.655857988</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3">
@@ -479,18 +508,18 @@
       <c r="C3">
         <v>0.35</v>
       </c>
-      <c r="D3">
-        <v>9.8228165751027524E-2</v>
-      </c>
-      <c r="E3">
-        <v>0.68607232910464744</v>
-      </c>
-      <c r="F3">
-        <v>1309083561.651263</v>
+      <c r="D3" s="3">
+        <v>8.4179404538962457E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.71005340110619186</v>
+      </c>
+      <c r="F3" s="4">
+        <v>49695750.086873911</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4">
@@ -499,18 +528,18 @@
       <c r="C4">
         <v>0.35</v>
       </c>
-      <c r="D4">
-        <v>9.8228165751027524E-2</v>
-      </c>
-      <c r="E4">
-        <v>0.68607232910464744</v>
-      </c>
-      <c r="F4">
-        <v>1309083561.651263</v>
+      <c r="D4" s="3">
+        <v>0.2182006796012734</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.71005340110619186</v>
+      </c>
+      <c r="F4" s="4">
+        <v>42140680.167327046</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5">
@@ -519,14 +548,44 @@
       <c r="C5">
         <v>0.36</v>
       </c>
-      <c r="D5">
-        <v>0.23769663051268039</v>
-      </c>
-      <c r="E5">
-        <v>0.68607232910464744</v>
-      </c>
-      <c r="F5">
-        <v>1270172230.762085</v>
+      <c r="D5" s="3">
+        <v>0.47852076467481591</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.71005340110619186</v>
+      </c>
+      <c r="F5" s="4">
+        <v>27302166.614253379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.46</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.6088905735061112</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.71005340110619186</v>
+      </c>
+      <c r="F6" s="4">
+        <v>14454088.207545931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
